--- a/calculate purity.xlsx
+++ b/calculate purity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedkk\Documents\GitHub\kmean-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBF0B2-C76B-41E9-AE05-18E83880586B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8619A480-7D28-4B9F-9D93-CA7A941A0815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3270" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3285" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
